--- a/biology/Médecine/Pierre_Bouchet_(médecin)/Pierre_Bouchet_(médecin).xlsx
+++ b/biology/Médecine/Pierre_Bouchet_(médecin)/Pierre_Bouchet_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Bouchet_(m%C3%A9decin)</t>
+          <t>Pierre_Bouchet_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Bouchet est un médecin français, né le 6 janvier 1752 à Lyon et mort le 6 janvier 1794 dans cette même ville[1].
-Il est chirurgien en chef de l'hôtel-Dieu et chargé, pendant le siège de Lyon, d'organiser les ambulances. Le refus d'un passeport, indispensable pour pratiquer une opération à quelque distance de Lyon, lui donne tant de chagrin qu'il en meure le 6 janvier 1794, laissant une veuve de trente deux ans et cinq enfants en bas-âge[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Bouchet est un médecin français, né le 6 janvier 1752 à Lyon et mort le 6 janvier 1794 dans cette même ville.
+Il est chirurgien en chef de l'hôtel-Dieu et chargé, pendant le siège de Lyon, d'organiser les ambulances. Le refus d'un passeport, indispensable pour pratiquer une opération à quelque distance de Lyon, lui donne tant de chagrin qu'il en meure le 6 janvier 1794, laissant une veuve de trente deux ans et cinq enfants en bas-âge.
 Son fils aîné est Claude-Antoine Bouchet (1785-1839), médecin également.
 </t>
         </is>
